--- a/medicine/Handicap/Julie_Mazaleigue-Labaste/Julie_Mazaleigue-Labaste.xlsx
+++ b/medicine/Handicap/Julie_Mazaleigue-Labaste/Julie_Mazaleigue-Labaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julie Mazaleigue-Labaste, née le 10 mai 1981 à Saint-Jean-de-Luz et morte le 28 mars 2023[1] à Villejuif, est une chercheuse, philosophe et historienne des sciences française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julie Mazaleigue-Labaste, née le 10 mai 1981 à Saint-Jean-de-Luz et morte le 28 mars 2023 à Villejuif, est une chercheuse, philosophe et historienne des sciences française.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a obtenu un doctorat en philosophie à l’Université de Picardie Jules Verne d’Amiens[2].
-Elle a soutenu sa thèse sur l’histoire de la perversion sexuelle[3].
-Chargée de recherche au CNRS, à l’institut des sciences juridiques et philosophiques de la Sorbonne, elle s’est spécialisée dans l'histoire de la sexualité et des sciences de la sexualité durant la période contemporaine[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a obtenu un doctorat en philosophie à l’Université de Picardie Jules Verne d’Amiens.
+Elle a soutenu sa thèse sur l’histoire de la perversion sexuelle.
+Chargée de recherche au CNRS, à l’institut des sciences juridiques et philosophiques de la Sorbonne, elle s’est spécialisée dans l'histoire de la sexualité et des sciences de la sexualité durant la période contemporaine,.
 </t>
         </is>
       </c>
@@ -570,9 +586,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2015 : Prix Robert Blanché de l’Académie des sciences morales et politiques pour Les déséquilibres de l’amour[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2015 : Prix Robert Blanché de l’Académie des sciences morales et politiques pour Les déséquilibres de l’amour.</t>
         </is>
       </c>
     </row>
@@ -600,7 +618,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Déséquilibres de l'amour : La genèse du concept de perversion sexuelle, de la Révolution française à Freud, D'ithaque Eds, coll. « Philosophie Anthropologie Psyc », 2014, 296 p. (ISBN 291612053X)
 avec Marie-Xaviere Catto, La bicatégorisation de sexe : Entre droit, normes sociales et sciences biomédicales, Mare &amp; Martin, coll. « Institut des sciences juridiques et philosophique de la sorb », 2021, 228 p. (ISBN 2849345393)
